--- a/case_excel/test_cese.xlsx
+++ b/case_excel/test_cese.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="313">
   <si>
     <t>TEST_ID</t>
   </si>
@@ -91,36 +91,7 @@
     <t>{"indicatorKeyName":"人口"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200||人口||pattern20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"indicatorId":"([^,]*?)","indicatorName":"[^,]*?","parentCode":"\d*?","noteCategory":"\d*?","hasChildren":false</t>
-    </r>
+    <t>200||人口||pattern20 "indicatorId":"([^,]*?)","indicatorName":"[^,]*?","parentCode":"\d*?","noteCategory":"\d*?","hasChildren":false</t>
   </si>
   <si>
     <t>response-data:=zbkid:= "indicatorId": "([^,]*?)", "indicatorName": "[^,]*?", "parentCode": "\d*?", "noteCategory": "\d*?", "hasChildren": false</t>
@@ -132,98 +103,6 @@
     <t>数据-指标库-指标筛选-人口</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200||</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>俄罗斯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>||</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> \d{4}-\d{2}-\d{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>||</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">len </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A4:G19</t>
-    </r>
-  </si>
-  <si>
     <t>/ias/master-api/edb/indicInfo/indicDataCharts</t>
   </si>
   <si>
@@ -234,6 +113,66 @@
   </si>
   <si>
     <t>api_004</t>
+  </si>
+  <si>
+    <t>数据-指标库-查询-关键字搜索-人口</t>
+  </si>
+  <si>
+    <t>/ias/master-api/edb/indicInfo/indicSearch</t>
+  </si>
+  <si>
+    <t>{"indexName":"{{ggz}}","size":"20","entityName":"","typeCode":"000200,000100,101,658975,771263","uuid":""}</t>
+  </si>
+  <si>
+    <t>200||"indicatorType":"1"||pattern100 {{ggz}}||pattern100 \d{10}</t>
+  </si>
+  <si>
+    <t>user-data:=ggz:=人口</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>api_005</t>
+  </si>
+  <si>
+    <t>数据-指标库-查询-关键字搜索-列表筛选排序-人口(字段问题)</t>
+  </si>
+  <si>
+    <t>{"indexName":"人口","size":"20","entityName":"","typeCode":"","uuid":"","indicatorNameDim":"人口自然增长率_市区_临沧市,人口自然增长率_市辖区_吕梁市,城市天然气用气人口数_重庆市,中等职业教育单位人口在校学生数_市辖区_盐城市_年","disclosureFrequencyDim":"季,年,日,月","orderByFlag":"true","indicatorCodeDim":"","labelDim":"钢铁,智能出行"}</t>
+  </si>
+  <si>
+    <t>200||人口自然增长率_市区_临沧市||"indicatorType":"0"||series</t>
+  </si>
+  <si>
+    <t>api_006</t>
+  </si>
+  <si>
+    <t>数据-指标库-查询-关键字搜索-人口-翻页功能</t>
+  </si>
+  <si>
+    <t>{"indexName":"{{ggz}}","size":"20","entityName":"","typeCode":"000200,000100,101,658975,771263","uuid":"","current":"10"}</t>
+  </si>
+  <si>
+    <t>200||pattern10 "indicatorName":"(.*?){{ggz}}(.*?)"</t>
+  </si>
+  <si>
+    <t>api_007</t>
+  </si>
+  <si>
+    <t>数据-指标库-查询-关键字搜索-高级搜索-维度列表</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/ias/master-api/edb/query/dimQueryInit</t>
+  </si>
+  <si>
+    <t>200||pattern42 "varName":"(.*?)"</t>
+  </si>
+  <si>
+    <t>api_008</t>
   </si>
   <si>
     <t>数据-指标库-指标高级筛选-钢铁 价格</t>
@@ -297,7 +236,7 @@
     </r>
   </si>
   <si>
-    <t>api_005</t>
+    <t>api_009</t>
   </si>
   <si>
     <t>数据-指标库-指标类型分类</t>
@@ -331,7 +270,7 @@
     <t>200||财务数据||计算数据||中国宏观||行业经济||外部数据</t>
   </si>
   <si>
-    <t>api_006</t>
+    <t>api_010</t>
   </si>
   <si>
     <t>数据-指标库-指标类型分类树</t>
@@ -365,7 +304,7 @@
     <t>response-data:=zbsid:="indicatorCode": "(.*?)"</t>
   </si>
   <si>
-    <t>api_007</t>
+    <t>api_011</t>
   </si>
   <si>
     <t>数据-指标库-指标类型分类下的指标树-一级</t>
@@ -380,7 +319,7 @@
     <t>200||{{zbsid}}</t>
   </si>
   <si>
-    <t>api_008</t>
+    <t>api_012</t>
   </si>
   <si>
     <t>数据-指标库-指标列表</t>
@@ -424,7 +363,7 @@
     <t>200||{{zbkid}}</t>
   </si>
   <si>
-    <t>api_009</t>
+    <t>api_013</t>
   </si>
   <si>
     <t>数据-指标库-指标编辑-获取地区维度</t>
@@ -436,7 +375,7 @@
     <t>200||pattern560 "hasChildren":false||pattern41 "hasChildren":true</t>
   </si>
   <si>
-    <t>api_010</t>
+    <t>api_014</t>
   </si>
   <si>
     <t>数据-指标库-指标提取_表单数据</t>
@@ -448,7 +387,7 @@
     <t>200||pattern2 {{zbkid}}||pattern3 \d{4}-\d{2}-\d{2}</t>
   </si>
   <si>
-    <t>api_011</t>
+    <t>api_015</t>
   </si>
   <si>
     <t>数据-指标库-指标提取_图形数据_剔除季节性因素</t>
@@ -502,7 +441,7 @@
     <t>200||pattern {{zbkid}}||pattern3 \d{4}-\d{2}-\d{2}</t>
   </si>
   <si>
-    <t>api_012</t>
+    <t>api_016</t>
   </si>
   <si>
     <t>数据-指标库-指标提取_图标数据</t>
@@ -533,7 +472,7 @@
     <t>200||pattern {{zbkid}}||pattern \d{4}-\d{2}-\d{2}</t>
   </si>
   <si>
-    <t>api_013</t>
+    <t>api_017</t>
   </si>
   <si>
     <t>数据-指标库-人口指标-指标运算-添加自定义公式</t>
@@ -555,7 +494,7 @@
     <t>response-data:=zdycd:="indicatorCode": "(.*?)"</t>
   </si>
   <si>
-    <t>api_014</t>
+    <t>api_018</t>
   </si>
   <si>
     <t>数据-指标库-人口指标-指标运算-获取自定义公式</t>
@@ -564,7 +503,7 @@
     <t>{"indciCode":"{{zdycd}}"}</t>
   </si>
   <si>
-    <t>api_015</t>
+    <t>api_019</t>
   </si>
   <si>
     <t>数据-指标库-人口指标-指标运算-添加常规计算</t>
@@ -579,7 +518,7 @@
     <t>response-data:=cgcd:="indicatorCode": "(.*?)"</t>
   </si>
   <si>
-    <t>api_016</t>
+    <t>api_020</t>
   </si>
   <si>
     <t>数据-指标库-人口指标-指标运算-获取常规计算</t>
@@ -588,7 +527,22 @@
     <t>{"indciCode":"{{cgcd}}"}</t>
   </si>
   <si>
-    <t>api_017</t>
+    <t>api_021</t>
+  </si>
+  <si>
+    <t>数据-指标库-人口指标-指标分析-相关性分析</t>
+  </si>
+  <si>
+    <t>/ias/master-api/edb/analyse/relativityAnalyse</t>
+  </si>
+  <si>
+    <t>{"baseCode":"190901044","moveCode":"190901040","frequencyName":"月","offset":"0"}</t>
+  </si>
+  <si>
+    <t>200||pattern15 \d{4}-\d{2}-\d{2}||190901044||190901040</t>
+  </si>
+  <si>
+    <t>api_022</t>
   </si>
   <si>
     <t>数据-指标库-人口指标-指标分析-趋势分析</t>
@@ -603,7 +557,7 @@
     <t>200||pattern {{zbkid}}||series||pattern5 data</t>
   </si>
   <si>
-    <t>api_018</t>
+    <t>api_023</t>
   </si>
   <si>
     <t>数据-指标库-人口指标-指标分析-季节性分析-相加(包含三个图)</t>
@@ -618,7 +572,7 @@
     <t>200||Trend||Season||Residual||pattern10 \d{4}-\d{2}-\d{2}</t>
   </si>
   <si>
-    <t>api_019</t>
+    <t>api_024</t>
   </si>
   <si>
     <t>数据-指标库-人口指标-指标分析-季节性分析-相乘(包含三个图)</t>
@@ -627,7 +581,7 @@
     <t>{"indicatorCode":"{{zbkid}}","model":"1"}</t>
   </si>
   <si>
-    <t>api_020</t>
+    <t>api_025</t>
   </si>
   <si>
     <t>数据-指标库-人口指标-保存模板</t>
@@ -642,7 +596,7 @@
     <t>200||操作成功</t>
   </si>
   <si>
-    <t>api_021</t>
+    <t>api_026</t>
   </si>
   <si>
     <t>数据-指标库-我的模板</t>
@@ -657,7 +611,7 @@
     <t>response-data:=mbid:="id":(\d*?),[^{]*?"name":"test22"</t>
   </si>
   <si>
-    <t>api_022</t>
+    <t>api_027</t>
   </si>
   <si>
     <t>数据-指标库-我的模板-删除模板</t>
@@ -669,7 +623,7 @@
     <t>{"id":"{{mbid}}"}</t>
   </si>
   <si>
-    <t>api_023</t>
+    <t>api_028</t>
   </si>
   <si>
     <t>数据-指标库-人口指标-添加监控</t>
@@ -681,7 +635,7 @@
     <t>{"indicatorCodes":"190901040","groupCode":"e3284e01d93a4fd68dcbc8bdbe537f3b","panelName":"测试"}</t>
   </si>
   <si>
-    <t>api_024</t>
+    <t>api_029</t>
   </si>
   <si>
     <t>数据-数据监控-获取分组code</t>
@@ -696,7 +650,7 @@
     <t>response-data:=groupCode:="code": "(.*?)"</t>
   </si>
   <si>
-    <t>api_025</t>
+    <t>api_030</t>
   </si>
   <si>
     <t>数据-数据监控-分组数据-图表</t>
@@ -711,7 +665,7 @@
     <t>200||{{groupCode}}||pattern2 \d{4}-\d{2}-\d{2}</t>
   </si>
   <si>
-    <t>api_026</t>
+    <t>api_031</t>
   </si>
   <si>
     <t>数据-数据监控-分组数据-列表</t>
@@ -726,7 +680,7 @@
     <t>200||indicatorName||pattern2 \d{4}-\d{2}-\d{2}</t>
   </si>
   <si>
-    <t>api_027</t>
+    <t>api_032</t>
   </si>
   <si>
     <t>数据-数据监控-分组监控搜索接口-图表</t>
@@ -738,7 +692,7 @@
     <t>200||pattern4 \d{4}-\d{2}-\d{2}</t>
   </si>
   <si>
-    <t>api_028</t>
+    <t>api_033</t>
   </si>
   <si>
     <t>数据-数据监控-分组监控搜索接口-列表</t>
@@ -747,7 +701,7 @@
     <t>{"groupCode":"{{groupCode}}","name":"_"}</t>
   </si>
   <si>
-    <t>api_029</t>
+    <t>api_034</t>
   </si>
   <si>
     <t>底层图谱-搜索-全选搜索关键字</t>
@@ -765,7 +719,7 @@
     <t>200||pattern10 测试||len 10000</t>
   </si>
   <si>
-    <t>api_030</t>
+    <t>api_035</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件</t>
@@ -782,7 +736,7 @@
     <t>200||公司||产品||人||股票||品牌||设备||期货||政府||其他证券||债券||领域||pattern11 "name":"(.*?)"</t>
   </si>
   <si>
-    <t>api_031</t>
+    <t>api_036</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-高级筛选</t>
@@ -794,7 +748,7 @@
     <t>200||pattern15 关系||pattern35 "label":"(.*?)"</t>
   </si>
   <si>
-    <t>api_032</t>
+    <t>api_037</t>
   </si>
   <si>
     <t>底层图谱-搜索-全选-查询结果为空的关键字</t>
@@ -809,7 +763,7 @@
     <t>200||查询结果为空||not data</t>
   </si>
   <si>
-    <t>api_033</t>
+    <t>api_038</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-高级筛选 只筛选 公司+法人</t>
@@ -824,7 +778,7 @@
     <t>200||"relatCateName":"法人"</t>
   </si>
   <si>
-    <t>api_034</t>
+    <t>api_039</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-高级筛选 只筛选 公司+法人+任职</t>
@@ -839,7 +793,7 @@
     <t>200||"relatCateName":"法人"||"relatCateName":"任职"</t>
   </si>
   <si>
-    <t>api_035</t>
+    <t>api_040</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-公司-精确搜索公司</t>
@@ -854,7 +808,7 @@
     <t>200||招商银行股份有限公司深圳深纺大厦支行||"relatCateName":"股东"</t>
   </si>
   <si>
-    <t>api_036</t>
+    <t>api_041</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-产品-搜索关键字</t>
@@ -869,7 +823,7 @@
     <t>200||钢铁||"relatCateName":"总分"||"relatCateName":"下游"||not 公司</t>
   </si>
   <si>
-    <t>api_037</t>
+    <t>api_042</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-人-搜索关键字</t>
@@ -884,7 +838,7 @@
     <t>200||王子||"relatCateName":"法人"||"relatCateName":"股东"||"relatCateName":"任职"</t>
   </si>
   <si>
-    <t>api_038</t>
+    <t>api_043</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-股票-搜索关键字</t>
@@ -899,7 +853,7 @@
     <t>200||pattern5 "mainTypeName":"股票"||pattern10 上市</t>
   </si>
   <si>
-    <t>api_039</t>
+    <t>api_044</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-设备-搜索关键字</t>
@@ -914,7 +868,7 @@
     <t>200||pattern6 "_uuid":"(.*?)"||工序||产出</t>
   </si>
   <si>
-    <t>api_040</t>
+    <t>api_045</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-政府-搜索关键字</t>
@@ -929,7 +883,7 @@
     <t>200||pattern6 "_uuid":"(.*?)"||"mainTypeName":"政府"</t>
   </si>
   <si>
-    <t>api_041</t>
+    <t>api_046</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-其他证券-搜索关键字</t>
@@ -944,7 +898,7 @@
     <t>200||中国石油天然气集团公司企业年金计划-中国工商银行股份有限公司||pattern5 "companyName":"(.*?)"</t>
   </si>
   <si>
-    <t>api_042</t>
+    <t>api_047</t>
   </si>
   <si>
     <t>底层图谱-搜索-筛选条件-高级筛选-去掉全选</t>
@@ -956,10 +910,7 @@
 "uuid":""}</t>
   </si>
   <si>
-    <t>200||not 招商</t>
-  </si>
-  <si>
-    <t>api_043</t>
+    <t>api_048</t>
   </si>
   <si>
     <t>底层图谱-根据公司uuid查找关系图谱</t>
@@ -974,7 +925,7 @@
     <t>200||招商湘江产业投资有限公司</t>
   </si>
   <si>
-    <t>api_044</t>
+    <t>api_049</t>
   </si>
   <si>
     <t>底层图谱-根据不存在的公司uuid查找关系图谱</t>
@@ -984,6 +935,214 @@
   </si>
   <si>
     <t>200||查询结果为空</t>
+  </si>
+  <si>
+    <t>api_050</t>
+  </si>
+  <si>
+    <t>底层图谱-公司节点搜索实时显示</t>
+  </si>
+  <si>
+    <t>/ias/master-api/category/neo4j/queryListByLikeName</t>
+  </si>
+  <si>
+    <t>{"entityName":"公司","categoryCode":"0001"}</t>
+  </si>
+  <si>
+    <t>200||pattern6 "companyName":"(.*?)公司"</t>
+  </si>
+  <si>
+    <t>api_051</t>
+  </si>
+  <si>
+    <t>底层图谱-产品节点搜索实时显示</t>
+  </si>
+  <si>
+    <t>{"entityName":"产品","categoryCode":"0002"}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200||pattern10 "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name":"(.*?)产品(.*?)"</t>
+    </r>
+  </si>
+  <si>
+    <t>api_052</t>
+  </si>
+  <si>
+    <t>底层图谱-人节点搜索实时显示</t>
+  </si>
+  <si>
+    <t>{"entityName":"王","categoryCode":"0003"}</t>
+  </si>
+  <si>
+    <t>200||pattern10 "name":"王(.*?)"</t>
+  </si>
+  <si>
+    <t>api_053</t>
+  </si>
+  <si>
+    <t>底层图谱-股票节点搜索实时显示</t>
+  </si>
+  <si>
+    <t>{"entityName":"招商","categoryCode":"0004"}</t>
+  </si>
+  <si>
+    <t>200||pattern10 "name":"招商(.*?)"</t>
+  </si>
+  <si>
+    <t>api_054</t>
+  </si>
+  <si>
+    <t>底层图谱-设备节点搜索实时显示</t>
+  </si>
+  <si>
+    <t>{"entityName":"设备","categoryCode":"0007"}</t>
+  </si>
+  <si>
+    <t>200||pattern10 "name":".*?设备(.*?)"</t>
+  </si>
+  <si>
+    <t>api_055</t>
+  </si>
+  <si>
+    <t>底层图谱-政府节点搜索实时显示</t>
+  </si>
+  <si>
+    <t>{"entityName":"政府","categoryCode":"0009"}</t>
+  </si>
+  <si>
+    <t>200||pattern10 "name":"(.*?)政府(.*?)"</t>
+  </si>
+  <si>
+    <t>api_056</t>
+  </si>
+  <si>
+    <t>底层图谱-其他证券节点搜索实时显示</t>
+  </si>
+  <si>
+    <t>{"entityName":"债","categoryCode":"0010"}</t>
+  </si>
+  <si>
+    <t>200||pattern10 "name":".*?债(.*?)"</t>
+  </si>
+  <si>
+    <t>api_057</t>
+  </si>
+  <si>
+    <t>底层图谱-添加公司节点</t>
+  </si>
+  <si>
+    <t>/ias/master-api/entity/addEntity</t>
+  </si>
+  <si>
+    <t>{"entityName":"这是一个公司节点1000000",
+"categoryCode":"0001",
+"_uuid":"10010+10000"}</t>
+  </si>
+  <si>
+    <t>200||这是一个公司节点1000000</t>
+  </si>
+  <si>
+    <t>response-data:=startcode:="_uuid": "(.*?)"</t>
+  </si>
+  <si>
+    <t>api_058</t>
+  </si>
+  <si>
+    <t>底层图谱-添加产品节点</t>
+  </si>
+  <si>
+    <t>{"entityName":"这是一个产品节点1000000",
+"categoryCode":"0002",
+"_uuid":"10010+100000"}</t>
+  </si>
+  <si>
+    <t>200||这是一个产品节点1000000</t>
+  </si>
+  <si>
+    <t>response-data:=enncode:="_uuid": "(.*?)"</t>
+  </si>
+  <si>
+    <t>api_059</t>
+  </si>
+  <si>
+    <t>底层图谱-公司+产品节点关联</t>
+  </si>
+  <si>
+    <t>/ias/master-api/category/neo4j/addGraphRelation</t>
+  </si>
+  <si>
+    <t>{"endCode":"{{enncode}}",
+"startCode":"{{startcode}}",
+"relatCateCode":"00020005",
+"jsonData":"[{\"name\":\"市场占比\",\"propertyCode\":\"81ae24b8dd064e5a80cad589a522021d\",\"varKey\":\"10\"}]"
+}</t>
+  </si>
+  <si>
+    <t>api_060</t>
+  </si>
+  <si>
+    <t>底层谱图-删除公司节点</t>
+  </si>
+  <si>
+    <t>/ias/master-api/category/neo4j/deleteEntityAndRelation</t>
+  </si>
+  <si>
+    <t>{"uuid":"{{enncode}}"}</t>
+  </si>
+  <si>
+    <t>200||删除成功</t>
+  </si>
+  <si>
+    <t>api_061</t>
+  </si>
+  <si>
+    <t>底层谱图-删除产品节点</t>
+  </si>
+  <si>
+    <t>{"uuid":"{{startcode}}"}</t>
+  </si>
+  <si>
+    <t>api_062</t>
+  </si>
+  <si>
+    <t>底层谱图-查询删除公司节点</t>
+  </si>
+  <si>
+    <t>{"entityName":"这是一个公司节点1000000",
+"entityCodes":"0001%2C0002%2C0003%2C0004%2C0005%2C0007%2C0008%2C0009%2C0010%2C0011%2C0012",
+"propertyNames":"00030001%2C00030002%2C00030003%2C00030005%2C00010001%2C00010002%2C00010003%2C00010004%2C00020005%2C00050001%2C00110001%2C00040001%2C00040002%2C00040005%2C00070001%2C00080001%2C00090001%2C00120001%2C00100001%2C00160001%2C00170001%2C00170002%2C00180001%2C00190001",
+"uuid":""}</t>
+  </si>
+  <si>
+    <t>api_063</t>
+  </si>
+  <si>
+    <t>底层谱图-查询删除产品节点</t>
+  </si>
+  <si>
+    <t>{"entityName":"这是一个产品节点1000000",
+"entityCodes":"0001%2C0002%2C0003%2C0004%2C0005%2C0007%2C0008%2C0009%2C0010%2C0011%2C0012",
+"propertyNames":"00030001%2C00030002%2C00030003%2C00030005%2C00010001%2C00010002%2C00010003%2C00010004%2C00020005%2C00050001%2C00110001%2C00040001%2C00040002%2C00040005%2C00070001%2C00080001%2C00090001%2C00120001%2C00100001%2C00160001%2C00170001%2C00170002%2C00180001%2C00190001",
+"uuid":""}</t>
   </si>
   <si>
     <t>step</t>
@@ -1013,9 +1172,6 @@
   </si>
   <si>
     <t>header:=Referer:=http://www.biaodaa.com/</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>[False, True, False]</t>
@@ -1064,13 +1220,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,24 +1251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,21 +1274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,37 +1288,20 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1208,16 +1317,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1231,16 +1356,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,6 +1393,102 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1267,7 +1504,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,61 +1552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,91 +1570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,21 +1601,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1505,11 +1631,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,11 +1662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1547,17 +1692,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1569,10 +1710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1581,16 +1722,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1599,119 +1740,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1732,26 +1873,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2108,47 +2246,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:KA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="56" style="7" customWidth="1"/>
+    <col min="2" max="2" width="50.2916666666667" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="29.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="29.6916666666667" style="7" customWidth="1"/>
+    <col min="6" max="6" width="52.2" style="7" customWidth="1"/>
     <col min="7" max="7" width="74.625" style="7" customWidth="1"/>
     <col min="8" max="8" width="56.25" style="7" customWidth="1"/>
     <col min="9" max="9" width="46.875" style="7" customWidth="1"/>
     <col min="10" max="10" width="11" style="7" customWidth="1"/>
+    <col min="14" max="14" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -2171,19 +2310,19 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
@@ -2203,17 +2342,17 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J3" t="s">
@@ -2233,29 +2372,27 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="9"/>
       <c r="J4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:10">
+    <row r="5" ht="94.5" customHeight="1" spans="1:10">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2263,1091 +2400,1604 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="10"/>
       <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="94.5" customHeight="1" spans="1:10">
       <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="13"/>
       <c r="J6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="94.5" customHeight="1" spans="1:10">
       <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="94.5" customHeight="1" spans="1:10">
+      <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:10">
+      <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+      <c r="B9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:10">
-      <c r="A10" t="s">
+      <c r="B10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="9"/>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="H12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="9"/>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="G13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="9"/>
       <c r="J13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="21" customHeight="1" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:10">
       <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>76</v>
+      <c r="D14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>80</v>
       </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" ht="21" customHeight="1" spans="1:10">
-      <c r="A15" t="s">
+      <c r="B15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="9"/>
       <c r="J15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" ht="21" customHeight="1" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="I16" s="9"/>
       <c r="J16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="21" customHeight="1" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="10"/>
+      <c r="H17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="9"/>
       <c r="J17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" ht="21" customHeight="1" spans="1:10">
       <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="F18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="G18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="J18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="21" customHeight="1" spans="1:10">
       <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" ht="21" customHeight="1" spans="1:10">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="27" spans="1:10">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="10"/>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="J20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:10">
       <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="10"/>
+      <c r="F21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="9"/>
       <c r="J21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:10">
       <c r="A22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
+      <c r="F22" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>114</v>
       </c>
+      <c r="H22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="9"/>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="D23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="10"/>
+      <c r="G23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="9"/>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:10">
       <c r="A24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="10"/>
+      <c r="D24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="9"/>
       <c r="J24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:10">
       <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="G25" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="I25" s="9"/>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="H26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="9"/>
       <c r="J26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:10">
       <c r="A27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="G28" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="9"/>
       <c r="J28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:10">
       <c r="A29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="10"/>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="9"/>
       <c r="J29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" ht="61.5" customHeight="1" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="C30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
         <v>150</v>
       </c>
+      <c r="I30" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="J30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="B31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="C31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="G31" s="9" t="s">
         <v>155</v>
       </c>
+      <c r="H31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="9"/>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="C32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>159</v>
       </c>
+      <c r="G32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="9"/>
       <c r="J32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" ht="108" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="B33" s="12" t="s">
         <v>163</v>
       </c>
+      <c r="C33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="9"/>
       <c r="J33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" ht="54" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>167</v>
-      </c>
+      <c r="I34" s="9"/>
       <c r="J34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" ht="54" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" ht="61.5" customHeight="1" spans="1:10">
       <c r="A35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="B35" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="C35" s="13" t="s">
         <v>171</v>
       </c>
+      <c r="D35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="J35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" ht="81" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" spans="1:10">
       <c r="A36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" ht="108" spans="1:10">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="J36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" ht="67.5" spans="1:10">
-      <c r="A37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" ht="54" spans="1:10">
-      <c r="A38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>182</v>
+      <c r="G38" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="54" spans="1:10">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>39</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="12"/>
       <c r="F39" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>186</v>
+        <v>172</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="54" spans="1:10">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>39</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="12"/>
       <c r="F40" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>190</v>
+        <v>172</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" ht="54" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" ht="81" spans="1:10">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>39</v>
+        <v>197</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>194</v>
+        <v>172</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" ht="54" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" ht="67.5" spans="1:10">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>39</v>
+        <v>201</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>198</v>
+        <v>172</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="54" spans="1:10">
       <c r="A43" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>39</v>
+        <v>205</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>202</v>
+        <v>172</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" ht="54" spans="1:10">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>39</v>
+        <v>209</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>207</v>
+        <v>172</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" ht="54" spans="1:10">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>39</v>
+        <v>213</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G45" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" ht="54" spans="1:10">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" ht="54" spans="1:10">
+      <c r="A47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" ht="54" spans="1:10">
+      <c r="A48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>212</v>
+      <c r="J48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="J52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:287">
+      <c r="A55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="J55" t="s">
+        <v>37</v>
+      </c>
+      <c r="KA55" s="7"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="J57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:10">
+      <c r="A58" t="s">
+        <v>265</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" ht="40.5" spans="1:10">
+      <c r="A59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" ht="94.5" spans="1:10">
+      <c r="A60" t="s">
+        <v>276</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" ht="108" spans="1:10">
+      <c r="A63" t="s">
+        <v>288</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" ht="108" spans="1:10">
+      <c r="A64" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J64" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -3421,10 +4071,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>215</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" ht="99.95" customHeight="1" spans="1:13">
@@ -3441,25 +4091,25 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" ht="94.5" customHeight="1" spans="1:13">
@@ -3467,7 +4117,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -3476,25 +4126,25 @@
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="H3" s="5">
         <v>200</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" ht="94.5" customHeight="1" spans="1:13">
@@ -3502,7 +4152,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -3511,47 +4161,47 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="H4" s="5">
         <v>200</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="1" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
